--- a/SE M1 Requirements.xlsx
+++ b/SE M1 Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA01A9-A730-7045-9431-30DC942C6158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC7E51-8DD5-AD4A-842C-4DD41A573C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -1036,6 +1036,39 @@
   </si>
   <si>
     <t xml:space="preserve">I can get an urgent medical help </t>
+  </si>
+  <si>
+    <t>Abdelrahman hesham</t>
+  </si>
+  <si>
+    <t>Hassan Gouda</t>
+  </si>
+  <si>
+    <t>Kareem Ahmed Khaled</t>
+  </si>
+  <si>
+    <t>Ahmed sherif</t>
+  </si>
+  <si>
+    <t>58-1752</t>
+  </si>
+  <si>
+    <t>58-19103</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52-0892 </t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>50-40004</t>
+  </si>
+  <si>
+    <t>P022</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1599,8 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1657,28 +1690,52 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>337</v>
+      </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="22" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>338</v>
+      </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="22" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>340</v>
+      </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="22" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>342</v>
+      </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="22" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2688,7 +2745,7 @@
   </sheetPr>
   <dimension ref="A1:H1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A129" zoomScale="125" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
